--- a/results/RMS/results.xlsx
+++ b/results/RMS/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-riaktu\IdeaProjects\graph2vec\results\RMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D8BD2C-2D1E-4BB2-B19C-4692790E51E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A59977-B91E-467E-963E-32C062E934D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dists" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>6, 12, 13, 15, 16, 17, 19, 20, 21, 22, 23, 27, 31, 32, 34, 35</t>
+  </si>
+  <si>
+    <t>euclidian</t>
+  </si>
+  <si>
+    <t>cosine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,9 +519,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -641,156 +648,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>dists!$B$2:$B$50</c:f>
+              <c:f>dists!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.31814533233346498</c:v>
+                  <c:v>1.3086541107052001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64877905137682401</c:v>
+                  <c:v>1.56922045256554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37273513422819299</c:v>
+                  <c:v>0.89239847296206598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28987770416977798</c:v>
+                  <c:v>1.1260975541198699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41285526949221102</c:v>
+                  <c:v>1.0734310443874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14005969509677799</c:v>
+                  <c:v>0.62209457398094903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12841709918576</c:v>
+                  <c:v>0.74446170084881103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14341649024898401</c:v>
+                  <c:v>0.66400247577908</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21316651386611599</c:v>
+                  <c:v>0.80664728588004597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8690431546734597E-2</c:v>
+                  <c:v>0.52799487721487304</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.152946806880501</c:v>
+                  <c:v>0.54960512734866096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28544718037269701</c:v>
+                  <c:v>0.71174847514723405</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.149804991683403</c:v>
+                  <c:v>0.46582292241317602</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13458531538044599</c:v>
+                  <c:v>0.55884444030218705</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23182801581303999</c:v>
+                  <c:v>0.46714872330641</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29314304040872202</c:v>
+                  <c:v>0.588128177425429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.26669975575947202</c:v>
+                  <c:v>0.45629840464274801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.12301091929618201</c:v>
+                  <c:v>0.61840399474823404</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12317168934200701</c:v>
+                  <c:v>0.558540822792437</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.114696294088034</c:v>
+                  <c:v>0.56689020656345901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.8991173251855594E-2</c:v>
+                  <c:v>0.69512906683181397</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.100894471398663</c:v>
+                  <c:v>0.70404915577323002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7934559631568302E-2</c:v>
+                  <c:v>0.71501011184036301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14405658003586</c:v>
+                  <c:v>0.61858974239640896</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.28796353323632701</c:v>
+                  <c:v>0.56363468952567397</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.160434696755196</c:v>
+                  <c:v>0.76374337245157198</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.200168273022474</c:v>
+                  <c:v>0.92225048163172196</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.16370098215328499</c:v>
+                  <c:v>0.77432286873574696</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.209079809983548</c:v>
+                  <c:v>0.66629953635823602</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.5449766995631694E-2</c:v>
+                  <c:v>0.79631923384607595</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.3403839793096299E-2</c:v>
+                  <c:v>0.75584289356875001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.109130074312832</c:v>
+                  <c:v>0.76799858059474502</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.50013345188254699</c:v>
+                  <c:v>0.68939575924033902</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.59837499373799696</c:v>
+                  <c:v>1.0100970525784301</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.45964445242917101</c:v>
+                  <c:v>0.45470580318926901</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.66671379953169696</c:v>
+                  <c:v>0.97997774044770503</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.69178768372508004</c:v>
+                  <c:v>0.40078985611413098</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.436838501477611</c:v>
+                  <c:v>0.90147421481773304</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.33178193113008297</c:v>
+                  <c:v>0.45678383376243997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.123730038828389</c:v>
+                  <c:v>0.85131868057885896</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.32163885195970898</c:v>
+                  <c:v>0.98962163926760205</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.46411600299894501</c:v>
+                  <c:v>1.2120584023363801</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.14557655461279601</c:v>
+                  <c:v>0.81532460275093399</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28395342951066199</c:v>
+                  <c:v>0.95449828956340299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.6138935301663199E-2</c:v>
+                  <c:v>1.2318820153847201</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.26378830104548701</c:v>
+                  <c:v>1.27805401599226</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.59101417300091497</c:v>
+                  <c:v>1.4176645353020101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.7481402064608106E-2</c:v>
+                  <c:v>2.26619123269416</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.13756120252378301</c:v>
+                  <c:v>2.101853739979</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2041628058507401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,6 +809,401 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63C7-4574-96CD-D4B684150881}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1720688016"/>
+        <c:axId val="1720690512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1720688016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720690512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1720690512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720688016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>dists!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>3.5804169292189499E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.40437073373833E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1799716018241402E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3710983924530799E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9317523883278804E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3835200824915402E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7112488550663501E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.76602608313902E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4880297505519501E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5188053596018E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5266276010803501E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4501420091889098E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0763835018196E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.69853749345361E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1873688776784502E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5941327215605E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5819393186947699E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.16037516440603E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0546201926866497E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.37925581023723E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3913600438656398E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9508416860163302E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1962618912965098E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6890455089889601E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8355711382798102E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4244468615801599E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8590458771790002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2862308451877499E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2412099781026198E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3807779007042301E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5402431171420701E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.26712139372642E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.49896185490661E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1253992867113999E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6864058303008799E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.20934267253839E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0823609274928101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.17186145180425E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.52291906230362E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6264179103621102E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4188835207873401E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0835754444035199E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.4668515470124201E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5676701867284298E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.71417559131814E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.7425365599529298E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9828036242897102E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.16337263860624601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1905829671129501E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.2079506148385699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35AB-40E9-9EB5-AC35D685F29E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1006,7 +1411,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1555,6 +2516,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6AFB9C-74BC-4DBF-BFDF-1AC89E74AEB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1859,34 +2858,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B1">
-        <v>0</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.31814533233346498</v>
+      <c r="B2" s="2">
+        <v>1.3086541107052001</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.5804169292189499E-3</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.64877905137682401</v>
+      <c r="B3" s="2">
+        <v>1.56922045256554</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.40437073373833E-3</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>0</v>
@@ -1896,376 +2904,528 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.37273513422819299</v>
+      <c r="B4" s="2">
+        <v>0.89239847296206598</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.1799716018241402E-3</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.28987770416977798</v>
+      <c r="B5" s="2">
+        <v>1.1260975541198699</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.3710983924530799E-3</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.41285526949221102</v>
+      <c r="B6" s="2">
+        <v>1.0734310443874</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.9317523883278804E-3</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.14005969509677799</v>
+      <c r="B7" s="2">
+        <v>0.62209457398094903</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.3835200824915402E-3</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.12841709918576</v>
+      <c r="B8" s="2">
+        <v>0.74446170084881103</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.7112488550663501E-3</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.14341649024898401</v>
+      <c r="B9" s="2">
+        <v>0.66400247577908</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.76602608313902E-3</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.21316651386611599</v>
+      <c r="B10" s="2">
+        <v>0.80664728588004597</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.4880297505519501E-3</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>9.8690431546734597E-2</v>
+      <c r="B11" s="2">
+        <v>0.52799487721487304</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.5188053596018E-3</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.152946806880501</v>
+      <c r="B12" s="2">
+        <v>0.54960512734866096</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.5266276010803501E-3</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.28544718037269701</v>
+      <c r="B13" s="2">
+        <v>0.71174847514723405</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.4501420091889098E-3</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.149804991683403</v>
+      <c r="B14" s="2">
+        <v>0.46582292241317602</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.0763835018196E-3</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0.13458531538044599</v>
+      <c r="B15" s="2">
+        <v>0.55884444030218705</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.69853749345361E-3</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.23182801581303999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
+        <v>0.46714872330641</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3.1873688776784502E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0.29314304040872202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
+        <v>0.588128177425429</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.5941327215605E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0.26669975575947202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="2">
+        <v>0.45629840464274801</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.5819393186947699E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.12301091929618201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="2">
+        <v>0.61840399474823404</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.16037516440603E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0.12317168934200701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2">
+        <v>0.558540822792437</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.0546201926866497E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.114696294088034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2">
+        <v>0.56689020656345901</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.37925581023723E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>9.8991173251855594E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2">
+        <v>0.69512906683181397</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3.3913600438656398E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0.100894471398663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2">
+        <v>0.70404915577323002</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.9508416860163302E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>9.7934559631568302E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2">
+        <v>0.71501011184036301</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.1962618912965098E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0.14405658003586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2">
+        <v>0.61858974239640896</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.6890455089889601E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0.28796353323632701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="2">
+        <v>0.56363468952567397</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.8355711382798102E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0.160434696755196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="2">
+        <v>0.76374337245157198</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.4244468615801599E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>0.200168273022474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="2">
+        <v>0.92225048163172196</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.8590458771790002E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>0.16370098215328499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2">
+        <v>0.77432286873574696</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3.2862308451877499E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0.209079809983548</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2">
+        <v>0.66629953635823602</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.2412099781026198E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>9.5449766995631694E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2">
+        <v>0.79631923384607595</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.3807779007042301E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>9.3403839793096299E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2">
+        <v>0.75584289356875001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.5402431171420701E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>0.109130074312832</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2">
+        <v>0.76799858059474502</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.26712139372642E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>0.50013345188254699</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2">
+        <v>0.68939575924033902</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4.49896185490661E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>0.59837499373799696</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2">
+        <v>1.0100970525784301</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.1253992867113999E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>0.45964445242917101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2">
+        <v>0.45470580318926901</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.6864058303008799E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0.66671379953169696</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2">
+        <v>0.97997774044770503</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.20934267253839E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>0.69178768372508004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="2">
+        <v>0.40078985611413098</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4.0823609274928101E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>0.436838501477611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2">
+        <v>0.90147421481773304</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3.17186145180425E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0.33178193113008297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2">
+        <v>0.45678383376243997</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3.52291906230362E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>0.123730038828389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="2">
+        <v>0.85131868057885896</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3.6264179103621102E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>0.32163885195970898</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2">
+        <v>0.98962163926760205</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3.4188835207873401E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>0.46411600299894501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2">
+        <v>1.2120584023363801</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4.0835754444035199E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>0.14557655461279601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2">
+        <v>0.81532460275093399</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3.4668515470124201E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>0.28395342951066199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2">
+        <v>0.95449828956340299</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3.5676701867284298E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>7.6138935301663199E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2">
+        <v>1.2318820153847201</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3.71417559131814E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>0.26378830104548701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2">
+        <v>1.27805401599226</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3.7425365599529298E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>0.59101417300091497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2">
+        <v>1.4176645353020101</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3.9828036242897102E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>6.7481402064608106E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2">
+        <v>2.26619123269416</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.16337263860624601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>0.13756120252378301</v>
+      <c r="B50" s="2">
+        <v>2.101853739979</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2.1905829671129501E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2.2041628058507401</v>
+      </c>
+      <c r="C51" s="2">
+        <v>6.2079506148385699E-2</v>
       </c>
     </row>
   </sheetData>
